--- a/data/trans_orig/P43B_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P43B_R-Dificultad-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>463376</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>450000</v>
+        <v>449840</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>474556</v>
+        <v>474741</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9206432842310333</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8940674861006525</v>
+        <v>0.8937500439045408</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9428560476112908</v>
+        <v>0.9432225263224904</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>39942</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28762</v>
+        <v>28577</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53318</v>
+        <v>53478</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07935671576896669</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05714395238870906</v>
+        <v>0.05677747367750961</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1059325138993473</v>
+        <v>0.106249956095459</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>415513</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>396727</v>
+        <v>395985</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>430410</v>
+        <v>432761</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8383198015095078</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8004170313175722</v>
+        <v>0.798920501494688</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8683739319877586</v>
+        <v>0.8731190179152404</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>80137</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>65240</v>
+        <v>62889</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>98923</v>
+        <v>99665</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1616801984904923</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1316260680122415</v>
+        <v>0.1268809820847596</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.199582968682428</v>
+        <v>0.2010794985053122</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>348763</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>331553</v>
+        <v>333887</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>361388</v>
+        <v>363744</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8572521465848104</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8149512436168855</v>
+        <v>0.8206866722169811</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8882853924720027</v>
+        <v>0.8940767374670652</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>58075</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45450</v>
+        <v>43094</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>75285</v>
+        <v>72951</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1427478534151896</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1117146075279974</v>
+        <v>0.1059232625329348</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1850487563831145</v>
+        <v>0.1793133277830189</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>163218</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>149461</v>
+        <v>149536</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>176362</v>
+        <v>177222</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7449486041276967</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6821603399388469</v>
+        <v>0.682502847113444</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8049399753481715</v>
+        <v>0.8088618814293753</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>55882</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42738</v>
+        <v>41878</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>69639</v>
+        <v>69564</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2550513958723034</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1950600246518284</v>
+        <v>0.1911381185706247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3178396600611523</v>
+        <v>0.3174971528865564</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>1390870</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1358432</v>
+        <v>1361117</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1419429</v>
+        <v>1419499</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8559698468111733</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.836006899189642</v>
+        <v>0.8376595968742373</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8735460953192724</v>
+        <v>0.8735889561133847</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>234035</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>205476</v>
+        <v>205406</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>266473</v>
+        <v>263788</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1440301531888267</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1264539046807273</v>
+        <v>0.1264110438866149</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1639931008103575</v>
+        <v>0.1623404031257624</v>
       </c>
     </row>
     <row r="18">
@@ -1196,19 +1196,19 @@
         <v>536109</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>521374</v>
+        <v>521892</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>547103</v>
+        <v>546901</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9325696537546483</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9069368487925119</v>
+        <v>0.9078382147987303</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9516940511120633</v>
+        <v>0.9513416402879032</v>
       </c>
     </row>
     <row r="5">
@@ -1225,19 +1225,19 @@
         <v>38764</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27770</v>
+        <v>27972</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53499</v>
+        <v>52981</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06743034624535169</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04830594888793692</v>
+        <v>0.04865835971209681</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09306315120748809</v>
+        <v>0.09216178520126991</v>
       </c>
     </row>
     <row r="6">
@@ -1287,19 +1287,19 @@
         <v>448566</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>433537</v>
+        <v>432825</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>462136</v>
+        <v>461563</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8958711594958566</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8658541602270512</v>
+        <v>0.8644320416909377</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.922973092744514</v>
+        <v>0.9218278352121723</v>
       </c>
     </row>
     <row r="8">
@@ -1316,19 +1316,19 @@
         <v>52138</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>38568</v>
+        <v>39141</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>67167</v>
+        <v>67879</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1041288405041434</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07702690725548583</v>
+        <v>0.07817216478782726</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1341458397729487</v>
+        <v>0.1355679583090622</v>
       </c>
     </row>
     <row r="9">
@@ -1378,19 +1378,19 @@
         <v>317478</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>303066</v>
+        <v>300830</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>329827</v>
+        <v>330121</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8526663111487064</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8139575824628663</v>
+        <v>0.807953684571054</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8858315990430791</v>
+        <v>0.886621555365253</v>
       </c>
     </row>
     <row r="11">
@@ -1407,19 +1407,19 @@
         <v>54858</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42509</v>
+        <v>42215</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>69270</v>
+        <v>71506</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1473336888512936</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1141684009569209</v>
+        <v>0.113378444634747</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1860424175371337</v>
+        <v>0.192046315428946</v>
       </c>
     </row>
     <row r="12">
@@ -1469,19 +1469,19 @@
         <v>173529</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>158723</v>
+        <v>158568</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>187340</v>
+        <v>188056</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7382661811756132</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6752770206034741</v>
+        <v>0.6746168648443013</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7970252579092753</v>
+        <v>0.8000698543960195</v>
       </c>
     </row>
     <row r="14">
@@ -1498,19 +1498,19 @@
         <v>61520</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47709</v>
+        <v>46993</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>76326</v>
+        <v>76481</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2617338188243869</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2029747420907247</v>
+        <v>0.1999301456039803</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3247229793965257</v>
+        <v>0.3253831351556985</v>
       </c>
     </row>
     <row r="15">
@@ -1560,19 +1560,19 @@
         <v>1475682</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1446475</v>
+        <v>1445253</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1502194</v>
+        <v>1503535</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8768364855503854</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8594821004134626</v>
+        <v>0.858755954933634</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8925900377349711</v>
+        <v>0.8933867504463977</v>
       </c>
     </row>
     <row r="17">
@@ -1589,19 +1589,19 @@
         <v>207279</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>180767</v>
+        <v>179426</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>236486</v>
+        <v>237708</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1231635144496146</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1074099622650289</v>
+        <v>0.1066132495536023</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1405178995865374</v>
+        <v>0.1412440450663661</v>
       </c>
     </row>
     <row r="18">
@@ -1769,19 +1769,19 @@
         <v>219685</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>211185</v>
+        <v>212150</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>225293</v>
+        <v>225790</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.923263497896923</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8875394990949936</v>
+        <v>0.8915950093881407</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9468321410166355</v>
+        <v>0.9489221699828879</v>
       </c>
     </row>
     <row r="5">
@@ -1798,19 +1798,19 @@
         <v>18259</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12651</v>
+        <v>12154</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26759</v>
+        <v>25794</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07673650210307705</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05316785898336454</v>
+        <v>0.05107783001711211</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1124605009050065</v>
+        <v>0.1084049906118592</v>
       </c>
     </row>
     <row r="6">
@@ -1860,19 +1860,19 @@
         <v>367392</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>356568</v>
+        <v>355598</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>376244</v>
+        <v>376641</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9023361617903108</v>
+        <v>0.902336161790311</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8757501659439018</v>
+        <v>0.8733678264734132</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.924077104711458</v>
+        <v>0.9250510959210739</v>
       </c>
     </row>
     <row r="8">
@@ -1889,19 +1889,19 @@
         <v>39765</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30913</v>
+        <v>30516</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>50589</v>
+        <v>51559</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09766383820968905</v>
+        <v>0.09766383820968906</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07592289528854199</v>
+        <v>0.07494890407892613</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1242498340560984</v>
+        <v>0.1266321735265869</v>
       </c>
     </row>
     <row r="9">
@@ -1951,19 +1951,19 @@
         <v>310374</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>297796</v>
+        <v>296962</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>322766</v>
+        <v>321459</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8049485090929199</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.772327407518577</v>
+        <v>0.7701660818204089</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8370888774546804</v>
+        <v>0.8336974300394995</v>
       </c>
     </row>
     <row r="11">
@@ -1980,19 +1980,19 @@
         <v>75208</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>62816</v>
+        <v>64123</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>87786</v>
+        <v>88620</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.19505149090708</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1629111225453197</v>
+        <v>0.1663025699605006</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.227672592481423</v>
+        <v>0.2298339181795912</v>
       </c>
     </row>
     <row r="12">
@@ -2042,19 +2042,19 @@
         <v>284162</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>268158</v>
+        <v>266903</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>299368</v>
+        <v>298874</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6771512551010819</v>
+        <v>0.6771512551010818</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6390154029234475</v>
+        <v>0.6360249874558944</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7133863754195414</v>
+        <v>0.7122101870120841</v>
       </c>
     </row>
     <row r="14">
@@ -2071,19 +2071,19 @@
         <v>135481</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>120275</v>
+        <v>120769</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>151485</v>
+        <v>152740</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3228487448989182</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2866136245804586</v>
+        <v>0.287789812987916</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3609845970765524</v>
+        <v>0.3639750125441061</v>
       </c>
     </row>
     <row r="15">
@@ -2133,19 +2133,19 @@
         <v>1181613</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1157896</v>
+        <v>1156652</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1206925</v>
+        <v>1205092</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8147222880353227</v>
+        <v>0.8147222880353225</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7983696165425574</v>
+        <v>0.7975115777734503</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8321749258335307</v>
+        <v>0.8309112460664266</v>
       </c>
     </row>
     <row r="17">
@@ -2162,19 +2162,19 @@
         <v>268713</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>243401</v>
+        <v>245234</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>292430</v>
+        <v>293674</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1852777119646773</v>
+        <v>0.1852777119646774</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1678250741664694</v>
+        <v>0.1690887539335733</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2016303834574427</v>
+        <v>0.2024884222265497</v>
       </c>
     </row>
     <row r="18">
